--- a/测试数据.xlsx
+++ b/测试数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dengzijun\gitee\exam_result_viewer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86A9BFD-7360-45C8-98C7-E2A44E70EB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C820EE5-5C67-46DF-8D4F-2CFB713871F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -457,7 +457,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
